--- a/Patrick/result/filtered_kmean/filtered_ht2.xlsx
+++ b/Patrick/result/filtered_kmean/filtered_ht2.xlsx
@@ -369,12 +369,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Duplikasi &lt;= 3</t>
+          <t>Duplikasi &lt; 3</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Duplikasi &gt; 3</t>
+          <t>Duplikasi =&gt; 3</t>
         </is>
       </c>
     </row>
@@ -417,12 +417,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>11614</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -441,12 +441,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>12073</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -465,24 +465,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>12296</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>14734</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>18212</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -573,12 +573,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>21684</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,24 +633,24 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>27201</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>3011</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -669,12 +669,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>31148</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -693,12 +693,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>4426</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -789,24 +789,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>7083</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>7105</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -873,24 +873,24 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>7781</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>7841</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>8313</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -981,12 +981,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>906</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -1065,24 +1065,24 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
           <t>T317</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
           <t>T408</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
